--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>1.92749417361473</v>
+        <v>1.516248937663556</v>
       </c>
       <c r="C3">
-        <v>1.747591372647683</v>
+        <v>1.560682679516057</v>
       </c>
       <c r="D3">
-        <v>1.550936023497163</v>
+        <v>1.514319819128396</v>
       </c>
       <c r="E3">
         <v>1.834695583582491</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>1.834695583582491</v>
       </c>
-      <c r="BA3">
-        <v>1.834695583582491</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>1.821807010637633</v>
+        <v>1.507861501681118</v>
       </c>
       <c r="C4">
-        <v>1.748342302432926</v>
+        <v>1.519505601659854</v>
       </c>
       <c r="D4">
-        <v>1.68761039408547</v>
+        <v>1.602279001294704</v>
       </c>
       <c r="E4">
-        <v>1.96900122769168</v>
+        <v>2.1453644888767</v>
       </c>
       <c r="F4">
-        <v>1.889082028157629</v>
+        <v>2.007652128026982</v>
       </c>
       <c r="G4">
         <v>1.767835936772166</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>1.767835936772166</v>
       </c>
-      <c r="BA4">
-        <v>1.767835936772166</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>1.677849765844819</v>
-      </c>
       <c r="D5">
-        <v>1.58005042271232</v>
+        <v>1.533634203309853</v>
       </c>
       <c r="E5">
-        <v>1.642049937152601</v>
+        <v>1.862695956043758</v>
       </c>
       <c r="F5">
-        <v>1.368282158887113</v>
+        <v>1.768040115052738</v>
       </c>
       <c r="G5">
-        <v>0.6540062440080208</v>
+        <v>1.317672174811868</v>
       </c>
       <c r="H5">
-        <v>1.079453537436748</v>
+        <v>1.022680528298392</v>
       </c>
       <c r="I5">
         <v>1.074400434091016</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>1.074400434091016</v>
       </c>
-      <c r="BA5">
-        <v>1.074400434091016</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>1.857085067168995</v>
-      </c>
       <c r="F6">
-        <v>1.734016800866844</v>
+        <v>1.798730406367843</v>
       </c>
       <c r="G6">
-        <v>0.6529586279768962</v>
+        <v>1.624644329511749</v>
       </c>
       <c r="H6">
-        <v>1.356561594381001</v>
+        <v>1.510468690286459</v>
       </c>
       <c r="I6">
-        <v>1.266814459660814</v>
+        <v>1.501816644427989</v>
       </c>
       <c r="J6">
-        <v>0.9325232237207937</v>
+        <v>0.9070039918702477</v>
       </c>
       <c r="K6">
         <v>0.9212998022035679</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>0.9212998022035679</v>
       </c>
-      <c r="BA6">
-        <v>0.9212998022035679</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.8757106569835083</v>
-      </c>
       <c r="H7">
-        <v>1.268696842865613</v>
+        <v>1.524434521513318</v>
       </c>
       <c r="I7">
-        <v>1.191460981026404</v>
+        <v>1.532369786811083</v>
       </c>
       <c r="J7">
-        <v>1.362850823607897</v>
+        <v>1.042579621507111</v>
       </c>
       <c r="K7">
-        <v>1.148586223271275</v>
+        <v>1.028888107831327</v>
       </c>
       <c r="L7">
-        <v>0.9867800023970696</v>
+        <v>1.022042907336096</v>
       </c>
       <c r="M7">
         <v>1.141837882844188</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>1.141837882844188</v>
       </c>
-      <c r="BA7">
-        <v>1.141837882844188</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.207803988834288</v>
-      </c>
       <c r="J8">
-        <v>1.151237038473929</v>
+        <v>1.052119244508254</v>
       </c>
       <c r="K8">
-        <v>1.054286425371109</v>
+        <v>0.9739397072873635</v>
       </c>
       <c r="L8">
-        <v>0.8521009797201051</v>
+        <v>1.083482333436536</v>
       </c>
       <c r="M8">
-        <v>1.138072517022626</v>
+        <v>1.303605130836716</v>
       </c>
       <c r="N8">
-        <v>1.372244540826872</v>
+        <v>1.34489417553354</v>
       </c>
       <c r="O8">
         <v>1.335361538769475</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>1.335361538769475</v>
       </c>
-      <c r="BA8">
-        <v>1.335361538769475</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>0.9850717181935753</v>
-      </c>
       <c r="L9">
-        <v>0.8586623743927158</v>
+        <v>1.048230161591079</v>
       </c>
       <c r="M9">
-        <v>1.108010287430838</v>
+        <v>1.159709768734829</v>
       </c>
       <c r="N9">
-        <v>1.305534947553189</v>
+        <v>1.095916825800991</v>
       </c>
       <c r="O9">
-        <v>1.13791261307421</v>
+        <v>1.192378712846454</v>
       </c>
       <c r="P9">
-        <v>1.286349615500271</v>
+        <v>1.277042522796856</v>
       </c>
       <c r="Q9">
         <v>1.202048372526998</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>1.202048372526998</v>
       </c>
-      <c r="BA9">
-        <v>1.202048372526998</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.138529136967881</v>
-      </c>
       <c r="N10">
-        <v>1.288551230447665</v>
+        <v>1.09266761031781</v>
       </c>
       <c r="O10">
-        <v>1.237252800536037</v>
+        <v>1.224048560391644</v>
       </c>
       <c r="P10">
-        <v>1.258028329344452</v>
+        <v>1.293136192195643</v>
       </c>
       <c r="Q10">
-        <v>1.239356233827293</v>
+        <v>1.210961441871872</v>
       </c>
       <c r="R10">
-        <v>2.809180028785785</v>
+        <v>2.615369162917314</v>
       </c>
       <c r="S10">
         <v>2.677488680362305</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>2.677488680362305</v>
       </c>
-      <c r="BA10">
-        <v>2.677488680362305</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.202168578549978</v>
-      </c>
       <c r="P11">
-        <v>1.261024414980416</v>
+        <v>1.276496651730441</v>
       </c>
       <c r="Q11">
-        <v>1.21121346245483</v>
+        <v>1.268509999927447</v>
       </c>
       <c r="R11">
-        <v>2.559848003339504</v>
+        <v>1.825134644920934</v>
       </c>
       <c r="S11">
-        <v>2.112732612705837</v>
+        <v>2.033218171624651</v>
       </c>
       <c r="T11">
-        <v>2.633898103989218</v>
+        <v>2.618053282882693</v>
       </c>
       <c r="U11">
         <v>2.466954516646402</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>2.466954516646402</v>
       </c>
-      <c r="BA11">
-        <v>2.466954516646402</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.233413405195272</v>
-      </c>
       <c r="R12">
-        <v>1.808832536153515</v>
+        <v>1.764874365638147</v>
       </c>
       <c r="S12">
-        <v>1.705771102314535</v>
+        <v>1.931144489665093</v>
       </c>
       <c r="T12">
-        <v>2.229440112512426</v>
+        <v>2.406099663413808</v>
       </c>
       <c r="U12">
-        <v>1.304525109075838</v>
+        <v>2.152537330144288</v>
       </c>
       <c r="V12">
-        <v>1.299687914466841</v>
+        <v>1.731723847815725</v>
       </c>
       <c r="W12">
-        <v>1.249164505240175</v>
+        <v>1.431088640641853</v>
       </c>
       <c r="X12">
-        <v>1.401189216021326</v>
+        <v>1.372961566907027</v>
       </c>
       <c r="Y12">
         <v>1.401189216021326</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>1.401189216021326</v>
       </c>
-      <c r="BA12">
-        <v>1.401189216021326</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>2.460922827063605</v>
-      </c>
-      <c r="S13">
-        <v>2.223880636488862</v>
-      </c>
       <c r="T13">
-        <v>2.133286403684442</v>
+        <v>2.338011880246493</v>
       </c>
       <c r="U13">
-        <v>1.24221304705241</v>
+        <v>2.357106719845503</v>
       </c>
       <c r="V13">
-        <v>1.205410808099949</v>
+        <v>2.356276715023498</v>
       </c>
       <c r="W13">
-        <v>1.483396971945128</v>
+        <v>2.21629047761287</v>
       </c>
       <c r="X13">
-        <v>1.888152810688548</v>
+        <v>1.902399534782662</v>
       </c>
       <c r="Y13">
-        <v>1.888152810688548</v>
+        <v>1.966855307908655</v>
       </c>
       <c r="Z13">
-        <v>2.193307704714287</v>
+        <v>1.983559881711905</v>
       </c>
       <c r="AA13">
-        <v>2.143477242895631</v>
+        <v>2.136062314641141</v>
       </c>
       <c r="AB13">
-        <v>2.217570159472659</v>
+        <v>2.241561867365394</v>
       </c>
       <c r="AC13">
         <v>2.217567799050979</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>2.217567799050979</v>
       </c>
-      <c r="BA13">
-        <v>2.217567799050979</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>2.329242896359118</v>
-      </c>
-      <c r="U14">
-        <v>1.639150115580201</v>
-      </c>
-      <c r="V14">
-        <v>1.19328686403406</v>
-      </c>
       <c r="W14">
-        <v>1.314204199822</v>
+        <v>2.310526014185643</v>
       </c>
       <c r="X14">
-        <v>1.688194389911679</v>
+        <v>1.969642719257858</v>
       </c>
       <c r="Y14">
-        <v>1.502367273702343</v>
+        <v>1.937894966683062</v>
       </c>
       <c r="Z14">
-        <v>1.608114819648332</v>
+        <v>1.93103453922987</v>
       </c>
       <c r="AA14">
-        <v>1.700992538849677</v>
+        <v>2.031764787322499</v>
       </c>
       <c r="AB14">
-        <v>2.055817427361806</v>
+        <v>2.135927826705641</v>
       </c>
       <c r="AC14">
-        <v>2.081314808299584</v>
+        <v>1.950353221540246</v>
       </c>
       <c r="AD14">
-        <v>2.127197886948307</v>
+        <v>2.041276490941102</v>
       </c>
       <c r="AE14">
-        <v>2.331396859582546</v>
+        <v>2.166968775134936</v>
       </c>
       <c r="AF14">
-        <v>2.408621835913149</v>
+        <v>2.139672475020404</v>
       </c>
       <c r="AG14">
         <v>2.139672475020404</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>2.139672475020404</v>
       </c>
-      <c r="BA14">
-        <v>2.139672475020404</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.173162933635141</v>
-      </c>
-      <c r="W15">
-        <v>1.294271566107086</v>
-      </c>
-      <c r="X15">
-        <v>1.617759501867222</v>
-      </c>
-      <c r="Y15">
-        <v>1.294649310704066</v>
-      </c>
-      <c r="Z15">
-        <v>1.675858050114876</v>
-      </c>
       <c r="AA15">
-        <v>1.661753450767312</v>
+        <v>1.98865454260444</v>
       </c>
       <c r="AB15">
-        <v>1.746121746641038</v>
+        <v>1.988654542604462</v>
       </c>
       <c r="AC15">
-        <v>1.82202512518006</v>
+        <v>1.806095414188391</v>
       </c>
       <c r="AD15">
-        <v>2.025071719147609</v>
+        <v>1.854752869950294</v>
       </c>
       <c r="AE15">
-        <v>2.135511120197231</v>
+        <v>1.984987808509886</v>
       </c>
       <c r="AF15">
-        <v>2.797576752784936</v>
+        <v>2.011395609719546</v>
       </c>
       <c r="AG15">
-        <v>1.87485413606896</v>
+        <v>2.210985773414453</v>
       </c>
       <c r="AH15">
-        <v>1.925031960518697</v>
+        <v>2.330672672271739</v>
       </c>
       <c r="AI15">
-        <v>2.537289456116776</v>
+        <v>2.459440348120401</v>
       </c>
       <c r="AJ15">
-        <v>2.435392224674993</v>
+        <v>2.100991693542231</v>
       </c>
       <c r="AK15">
         <v>2.100991693542231</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>2.100991693542231</v>
       </c>
-      <c r="BA15">
-        <v>2.100991693542231</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.577243958127794</v>
-      </c>
-      <c r="Z16">
-        <v>1.852734979174508</v>
-      </c>
-      <c r="AA16">
-        <v>1.862830554937323</v>
-      </c>
-      <c r="AB16">
-        <v>2.041401080699212</v>
-      </c>
-      <c r="AC16">
-        <v>1.796058471017603</v>
-      </c>
-      <c r="AD16">
-        <v>1.967334698684908</v>
-      </c>
       <c r="AE16">
-        <v>2.026427644993856</v>
+        <v>1.95617858661592</v>
       </c>
       <c r="AF16">
-        <v>1.846667368386212</v>
+        <v>2.151090884613516</v>
       </c>
       <c r="AG16">
-        <v>1.609625625599986</v>
+        <v>2.232402359458496</v>
       </c>
       <c r="AH16">
-        <v>0.9527777399432669</v>
+        <v>2.307457288603798</v>
       </c>
       <c r="AI16">
-        <v>1.300696220295894</v>
+        <v>2.526389380645511</v>
       </c>
       <c r="AJ16">
-        <v>0.3173162112820371</v>
+        <v>1.091147151778871</v>
       </c>
       <c r="AK16">
-        <v>-0.65631506589936</v>
+        <v>1.114171399050901</v>
       </c>
       <c r="AL16">
-        <v>0.2423318260859064</v>
+        <v>0.7608230790701942</v>
       </c>
       <c r="AM16">
-        <v>0.268099369888164</v>
+        <v>0.8171929556848756</v>
       </c>
       <c r="AN16">
-        <v>0.7452509897571069</v>
+        <v>0.8967077601845341</v>
       </c>
       <c r="AO16">
         <v>0.8967077601845341</v>
@@ -2365,58 +2251,40 @@
       <c r="AZ16">
         <v>0.8967077601845341</v>
       </c>
-      <c r="BA16">
-        <v>0.8967077601845341</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.836510400662172</v>
-      </c>
-      <c r="AD17">
-        <v>1.982567802676871</v>
-      </c>
-      <c r="AE17">
-        <v>2.112528448839979</v>
-      </c>
-      <c r="AF17">
-        <v>2.307702263710221</v>
-      </c>
-      <c r="AG17">
-        <v>1.632474738194589</v>
-      </c>
       <c r="AH17">
-        <v>0.8453448605954872</v>
+        <v>2.273076295481702</v>
       </c>
       <c r="AI17">
-        <v>0.8154429791674467</v>
+        <v>2.395170926915613</v>
       </c>
       <c r="AJ17">
-        <v>1.317834265070594</v>
+        <v>1.800020576268269</v>
       </c>
       <c r="AK17">
-        <v>0.3755441235464341</v>
+        <v>1.718967187759834</v>
       </c>
       <c r="AL17">
-        <v>-0.3154328121712013</v>
+        <v>1.459415358104388</v>
       </c>
       <c r="AM17">
-        <v>0.1986953960088078</v>
+        <v>1.509741350988136</v>
       </c>
       <c r="AN17">
-        <v>1.028725335207503</v>
+        <v>1.773412413757813</v>
       </c>
       <c r="AO17">
-        <v>1.278801470866475</v>
+        <v>0.1338254721205745</v>
       </c>
       <c r="AP17">
-        <v>0.4168642513032284</v>
+        <v>-0.4883557973630492</v>
       </c>
       <c r="AQ17">
-        <v>-0.3093403056675159</v>
+        <v>0.8766015904249524</v>
       </c>
       <c r="AR17">
         <v>0.782207885866093</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>0.782207885866093</v>
       </c>
-      <c r="BA17">
-        <v>0.782207885866093</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.670362118606472</v>
-      </c>
-      <c r="AH18">
-        <v>1.185231776119866</v>
-      </c>
-      <c r="AI18">
-        <v>1.508458613120878</v>
-      </c>
-      <c r="AJ18">
-        <v>1.306351242002779</v>
-      </c>
-      <c r="AK18">
-        <v>0.1298889348291699</v>
-      </c>
       <c r="AL18">
-        <v>0.4352509893214007</v>
+        <v>1.557009346267302</v>
       </c>
       <c r="AM18">
-        <v>0.5306536701717102</v>
+        <v>1.548916348216034</v>
       </c>
       <c r="AN18">
-        <v>1.015916273487227</v>
+        <v>1.589386175889063</v>
       </c>
       <c r="AO18">
-        <v>1.356060158541905</v>
+        <v>0.9836073856501315</v>
       </c>
       <c r="AP18">
-        <v>1.354879040433699</v>
+        <v>0.4753196237801127</v>
       </c>
       <c r="AQ18">
-        <v>0.9273921178055478</v>
+        <v>2.477445663648559</v>
       </c>
       <c r="AR18">
-        <v>2.321849008702292</v>
+        <v>2.01691766737</v>
       </c>
       <c r="AS18">
-        <v>2.093035950778344</v>
+        <v>1.823564868738359</v>
       </c>
       <c r="AT18">
-        <v>1.787977508297245</v>
+        <v>1.617535832906758</v>
       </c>
       <c r="AU18">
-        <v>1.356274578414407</v>
+        <v>1.554086551645839</v>
       </c>
       <c r="AV18">
-        <v>1.533774754225425</v>
+        <v>1.508385007449875</v>
       </c>
       <c r="AW18">
         <v>1.508385007449875</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>1.508385007449875</v>
       </c>
-      <c r="BA18">
-        <v>1.508385007449875</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>-0.3196162047590434</v>
-      </c>
-      <c r="AL19">
-        <v>-0.1399265171485364</v>
-      </c>
-      <c r="AM19">
-        <v>0.08002400320015202</v>
-      </c>
-      <c r="AN19">
-        <v>0.7018396446878628</v>
-      </c>
-      <c r="AO19">
-        <v>1.250939458317069</v>
-      </c>
       <c r="AP19">
-        <v>0.8318857884450415</v>
+        <v>0.6415376390553895</v>
       </c>
       <c r="AQ19">
-        <v>0.9477583282078594</v>
+        <v>1.488234279941625</v>
       </c>
       <c r="AR19">
-        <v>1.094701036342349</v>
+        <v>1.205410808100038</v>
       </c>
       <c r="AS19">
-        <v>0.9530418804713836</v>
+        <v>0.9634615329177532</v>
       </c>
       <c r="AT19">
-        <v>1.281673763033253</v>
+        <v>1.142484412546874</v>
       </c>
       <c r="AU19">
-        <v>0.8027039751693055</v>
+        <v>0.9888012784191602</v>
       </c>
       <c r="AV19">
-        <v>1.069697780284606</v>
+        <v>0.8780954941978392</v>
       </c>
       <c r="AW19">
-        <v>0.6266647386402369</v>
+        <v>0.6266145540918089</v>
       </c>
       <c r="AX19">
-        <v>0.5010010003247523</v>
+        <v>0.3854686824285025</v>
       </c>
       <c r="AY19">
-        <v>0.2751124249843251</v>
+        <v>0.5837948599211717</v>
       </c>
       <c r="AZ19">
         <v>0.6014263374495288</v>
       </c>
-      <c r="BA19">
-        <v>0.6014263374495288</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.326548386659154</v>
-      </c>
-      <c r="AP20">
-        <v>0.8829082615425587</v>
-      </c>
-      <c r="AQ20">
-        <v>0.5210148790856239</v>
-      </c>
-      <c r="AR20">
-        <v>1.447794679196179</v>
-      </c>
-      <c r="AS20">
-        <v>0.8728256520485367</v>
-      </c>
       <c r="AT20">
-        <v>1.426996794776736</v>
+        <v>1.245777925635272</v>
       </c>
       <c r="AU20">
-        <v>1.290216480625661</v>
+        <v>1.124712786946613</v>
       </c>
       <c r="AV20">
-        <v>1.24115308594166</v>
+        <v>1.165055762672873</v>
       </c>
       <c r="AW20">
-        <v>1.18027954441291</v>
+        <v>1.003756253906252</v>
       </c>
       <c r="AX20">
-        <v>1.028944203989823</v>
+        <v>0.6767639290315763</v>
       </c>
       <c r="AY20">
-        <v>0.5763579119224094</v>
+        <v>1.328924132093245</v>
       </c>
       <c r="AZ20">
-        <v>1.686249836453868</v>
-      </c>
-      <c r="BA20">
-        <v>1.711639661404685</v>
+        <v>1.609787824259601</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>0.9231788695984067</v>
-      </c>
-      <c r="AT21">
-        <v>1.124712786946525</v>
-      </c>
-      <c r="AU21">
-        <v>0.7621687449032022</v>
-      </c>
-      <c r="AV21">
-        <v>0.8990150582872447</v>
-      </c>
-      <c r="AW21">
-        <v>1.129570113515088</v>
-      </c>
       <c r="AX21">
-        <v>0.8274594031598692</v>
+        <v>0.7219463338497878</v>
       </c>
       <c r="AY21">
-        <v>0.6966453751699575</v>
+        <v>1.326548386659265</v>
       </c>
       <c r="AZ21">
-        <v>1.927329509947517</v>
-      </c>
-      <c r="BA21">
-        <v>1.963309208904307</v>
+        <v>1.690613666316931</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.003756253906229</v>
-      </c>
-      <c r="AX22">
-        <v>0.802403201599966</v>
-      </c>
-      <c r="AY22">
-        <v>0.5210148790856461</v>
-      </c>
-      <c r="AZ22">
-        <v>1.447794679196179</v>
-      </c>
-      <c r="BA22">
-        <v>1.685807066004008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.812186491006229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>2.195375580740766</v>
       </c>
       <c r="AG17">
-        <v>2.980209378995857</v>
+        <v>3.051988423696317</v>
       </c>
       <c r="AH17">
         <v>3.647228437274408</v>
@@ -2451,19 +2451,19 @@
         <v>1.872521508785896</v>
       </c>
       <c r="AG18">
-        <v>2.822333853751413</v>
+        <v>2.944137475478126</v>
       </c>
       <c r="AH18">
-        <v>3.845906281600109</v>
+        <v>3.933586883651374</v>
       </c>
       <c r="AI18">
-        <v>2.115981176209125</v>
+        <v>2.014919551176142</v>
       </c>
       <c r="AJ18">
-        <v>2.542856270410665</v>
+        <v>2.491319804758563</v>
       </c>
       <c r="AK18">
-        <v>1.954146674711188</v>
+        <v>2.358700676763115</v>
       </c>
       <c r="AL18">
         <v>2.777797690741424</v>
@@ -2522,31 +2522,31 @@
         <v>1.943794203772553</v>
       </c>
       <c r="AG19">
-        <v>2.672922779424614</v>
+        <v>2.530194824396892</v>
       </c>
       <c r="AH19">
-        <v>3.284632232209339</v>
+        <v>3.241844574095754</v>
       </c>
       <c r="AI19">
-        <v>2.767253381388879</v>
+        <v>2.526665560661456</v>
       </c>
       <c r="AJ19">
-        <v>2.961494745505977</v>
+        <v>2.781067979046448</v>
       </c>
       <c r="AK19">
-        <v>1.581547781257497</v>
+        <v>3.271886281175873</v>
       </c>
       <c r="AL19">
-        <v>1.875884305456199</v>
+        <v>2.073300717643933</v>
       </c>
       <c r="AM19">
-        <v>1.450993313666182</v>
+        <v>2.103357626813085</v>
       </c>
       <c r="AN19">
-        <v>0.3979826440748235</v>
+        <v>0.3834541475570052</v>
       </c>
       <c r="AO19">
-        <v>2.69102598245059</v>
+        <v>2.740261495864815</v>
       </c>
       <c r="AP19">
         <v>0.6994919452575576</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>2.76314783950975</v>
-      </c>
       <c r="AJ20">
-        <v>3.085348800787524</v>
+        <v>2.913101075313285</v>
       </c>
       <c r="AK20">
-        <v>2.35125076922893</v>
+        <v>3.126807966763234</v>
       </c>
       <c r="AL20">
         <v>2.808095862911286</v>
       </c>
       <c r="AM20">
-        <v>2.17564691785852</v>
+        <v>2.892264743986717</v>
       </c>
       <c r="AN20">
-        <v>2.008592810942544</v>
+        <v>1.87204206895466</v>
       </c>
       <c r="AO20">
-        <v>4.307673059319161</v>
+        <v>4.569471876550857</v>
       </c>
       <c r="AP20">
-        <v>-0.2388228654152447</v>
+        <v>1.589741018019208</v>
       </c>
       <c r="AQ20">
-        <v>-0.1329858710789389</v>
+        <v>0.5736642676680059</v>
       </c>
       <c r="AR20">
-        <v>-2.604000402888396</v>
+        <v>-4.149799191324089</v>
       </c>
       <c r="AS20">
-        <v>-1.669605379075589</v>
+        <v>-1.678602239427696</v>
       </c>
       <c r="AT20">
         <v>-1.432689847121871</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>2.321352408765298</v>
-      </c>
       <c r="AN21">
-        <v>2.141278709622818</v>
+        <v>1.978812988786327</v>
       </c>
       <c r="AO21">
-        <v>3.421011529160523</v>
+        <v>3.604071155096222</v>
       </c>
       <c r="AP21">
-        <v>0.9898281831606237</v>
+        <v>1.905380759921993</v>
       </c>
       <c r="AQ21">
-        <v>0.4083040303828334</v>
+        <v>1.167752392835797</v>
       </c>
       <c r="AR21">
-        <v>-0.08252516517808228</v>
+        <v>-2.475922651815654</v>
       </c>
       <c r="AS21">
-        <v>-0.3682427893006324</v>
+        <v>-0.5705663367256419</v>
       </c>
       <c r="AT21">
-        <v>-0.7896638887521124</v>
+        <v>-0.2229989129682308</v>
       </c>
       <c r="AU21">
-        <v>0.6825239311359033</v>
+        <v>0.3175191812679445</v>
       </c>
       <c r="AV21">
-        <v>1.122551915563408</v>
+        <v>1.058768853581427</v>
       </c>
       <c r="AW21">
-        <v>1.780300968358017</v>
+        <v>1.804377578238681</v>
       </c>
       <c r="AX21">
         <v>2.033479419175133</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>0.56997182820262</v>
-      </c>
       <c r="AR22">
-        <v>-0.2395803703963306</v>
+        <v>-1.301151919515731</v>
       </c>
       <c r="AS22">
-        <v>0.1340574031981845</v>
+        <v>-0.1469770571107198</v>
       </c>
       <c r="AT22">
-        <v>-1.616325793897389</v>
+        <v>0.2551864977031748</v>
       </c>
       <c r="AU22">
-        <v>0.06285237552883238</v>
+        <v>-1.11676463870205</v>
       </c>
       <c r="AV22">
-        <v>0.254631175783615</v>
+        <v>0.1776362760785632</v>
       </c>
       <c r="AW22">
-        <v>0.8629164812201218</v>
+        <v>1.119071098282753</v>
       </c>
       <c r="AX22">
-        <v>1.424898175306621</v>
+        <v>1.562315774899026</v>
       </c>
       <c r="AY22">
-        <v>2.87910633698536</v>
+        <v>3.080898110573727</v>
       </c>
       <c r="AZ22">
-        <v>2.273132718878146</v>
+        <v>2.221594549876471</v>
       </c>
       <c r="BA22">
-        <v>2.481068287768839</v>
+        <v>2.502458807779684</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.09374907620844919</v>
-      </c>
       <c r="AV23">
-        <v>0.3222834229443805</v>
+        <v>0.3039503456698345</v>
       </c>
       <c r="AW23">
-        <v>0.4842194753025719</v>
+        <v>0.7790263149646925</v>
       </c>
       <c r="AX23">
-        <v>0.6852722890551055</v>
+        <v>0.7893175677591291</v>
       </c>
       <c r="AY23">
-        <v>1.829048896543739</v>
+        <v>1.499838047825253</v>
       </c>
       <c r="AZ23">
-        <v>1.620205313802381</v>
+        <v>1.476229480348801</v>
       </c>
       <c r="BA23">
-        <v>2.274625453684709</v>
+        <v>1.91692372237473</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>1.951454828223187</v>
-      </c>
       <c r="AZ24">
-        <v>1.79176215494592</v>
+        <v>1.667657899747477</v>
       </c>
       <c r="BA24">
-        <v>2.620294283172142</v>
+        <v>1.947252656252729</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>1.515892482968972</v>
+      </c>
+      <c r="C3">
+        <v>1.710071460977503</v>
+      </c>
+      <c r="D3">
+        <v>2.64925711235009</v>
+      </c>
+      <c r="E3">
+        <v>1.004409005705997</v>
+      </c>
+      <c r="F3">
+        <v>2.533533936850585</v>
+      </c>
+      <c r="G3">
+        <v>3.301378284238377</v>
+      </c>
+      <c r="H3">
+        <v>2.91440374919274</v>
+      </c>
+      <c r="I3">
+        <v>2.81184912859318</v>
+      </c>
+      <c r="J3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="K3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="L3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="M3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="N3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="O3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="P3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Q3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="R3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="S3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="T3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="U3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="V3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="W3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="X3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Y3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Z3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AA3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AB3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AC3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AD3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AE3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AF3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AG3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AH3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AI3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AJ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AK3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AL3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AM3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AN3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AO3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AP3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AQ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AR3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AS3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AT3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AU3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AV3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AW3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AX3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AY3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AZ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="BA3">
+        <v>3.311198277644523</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.75539628881467</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>1.961221950981917</v>
+        <v>1.488469111998647</v>
       </c>
       <c r="D4">
-        <v>1.916016605030801</v>
+        <v>2.111059162701001</v>
       </c>
       <c r="E4">
-        <v>1.840904387006637</v>
+        <v>1.642433761320072</v>
       </c>
       <c r="F4">
-        <v>1.482570748730971</v>
+        <v>1.815660192323709</v>
       </c>
       <c r="G4">
-        <v>1.482570748730971</v>
+        <v>2.418114148635109</v>
       </c>
       <c r="H4">
-        <v>1.482570748730971</v>
+        <v>2.088987486264915</v>
       </c>
       <c r="I4">
-        <v>1.482570748730971</v>
+        <v>2.088206305536122</v>
       </c>
       <c r="J4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="K4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="L4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="M4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="N4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="O4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="P4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Q4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="R4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="S4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="T4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="U4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="V4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="W4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="X4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Y4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Z4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AB4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AC4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AD4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AE4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AF4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AG4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AH4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AI4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AJ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AK4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AL4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AM4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AN4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AO4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AP4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AQ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AR4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AS4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AT4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AU4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AV4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AW4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AX4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AY4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AZ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="BA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>1.327368416067398</v>
-      </c>
-      <c r="C5">
-        <v>1.392321641630434</v>
-      </c>
-      <c r="D5">
-        <v>2.213911448916162</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.883193296444685</v>
+        <v>1.684227191952448</v>
       </c>
       <c r="F5">
-        <v>1.795947358965178</v>
+        <v>1.79993383613537</v>
       </c>
       <c r="G5">
-        <v>1.564959442678782</v>
+        <v>2.828066716168043</v>
       </c>
       <c r="H5">
-        <v>1.533729034589149</v>
+        <v>2.332261646026246</v>
       </c>
       <c r="I5">
-        <v>1.533729034589149</v>
+        <v>1.891592186533786</v>
       </c>
       <c r="J5">
-        <v>1.533729034589149</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="K5">
-        <v>1.533729034589149</v>
+        <v>1.037234054664249</v>
       </c>
       <c r="L5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="M5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="N5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="O5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="P5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Q5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="R5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="S5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="T5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="U5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="V5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="W5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="X5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Y5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Z5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AB5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AC5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AD5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AE5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AF5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AG5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AH5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AI5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AJ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AK5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AL5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AM5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AN5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AO5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AP5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AQ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AR5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AS5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AT5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AU5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AV5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AW5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AX5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AY5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AZ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="BA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>1.515892482968928</v>
-      </c>
-      <c r="C6">
-        <v>1.710071460977503</v>
-      </c>
-      <c r="D6">
-        <v>2.649257112350067</v>
-      </c>
-      <c r="E6">
-        <v>1.004409005705997</v>
-      </c>
-      <c r="F6">
-        <v>2.533533936850563</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>3.301378284238399</v>
+        <v>2.728186312853165</v>
       </c>
       <c r="H6">
-        <v>2.914403749192762</v>
+        <v>2.508798255042111</v>
       </c>
       <c r="I6">
-        <v>2.811849128593202</v>
+        <v>2.544631191216373</v>
       </c>
       <c r="J6">
-        <v>3.311198277644523</v>
+        <v>1.839804681163337</v>
       </c>
       <c r="K6">
-        <v>3.311198277644523</v>
+        <v>1.554977796875501</v>
       </c>
       <c r="L6">
-        <v>3.311198277644523</v>
+        <v>1.196776590518644</v>
       </c>
       <c r="M6">
-        <v>3.311198277644523</v>
+        <v>1.267488427675878</v>
       </c>
       <c r="N6">
-        <v>3.311198277644523</v>
+        <v>1.198510571931855</v>
       </c>
       <c r="O6">
-        <v>3.311198277644523</v>
+        <v>1.152798198102345</v>
       </c>
       <c r="P6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Q6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="R6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="S6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="T6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="U6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="V6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="W6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="X6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Y6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Z6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AB6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AC6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AD6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AE6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AF6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AG6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AH6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AI6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AJ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AK6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AL6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AM6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AN6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AO6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AP6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AQ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AR6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AS6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AT6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AU6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AV6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AW6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AX6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AY6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AZ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="BA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>1.488469111998625</v>
-      </c>
-      <c r="D7">
-        <v>2.111059162701001</v>
-      </c>
-      <c r="E7">
-        <v>1.642433761320072</v>
-      </c>
-      <c r="F7">
-        <v>1.815660192323709</v>
-      </c>
-      <c r="G7">
-        <v>2.418114148635109</v>
-      </c>
-      <c r="H7">
-        <v>2.088987486264915</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.0882063055361</v>
+        <v>2.368280591879057</v>
       </c>
       <c r="J7">
-        <v>2.201049854143089</v>
+        <v>1.722038049957497</v>
       </c>
       <c r="K7">
-        <v>2.201049854143089</v>
+        <v>1.312870290004309</v>
       </c>
       <c r="L7">
-        <v>2.295764853811622</v>
+        <v>0.6705904529405782</v>
       </c>
       <c r="M7">
-        <v>2.295764853811622</v>
+        <v>0.618025493879526</v>
       </c>
       <c r="N7">
-        <v>2.295764853811622</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="O7">
-        <v>2.295764853811622</v>
+        <v>0.4980533509886476</v>
       </c>
       <c r="P7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Q7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="R7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="S7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="T7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="U7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="V7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="W7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="X7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Y7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Z7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AB7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AC7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AD7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AE7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AF7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AG7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AH7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AI7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AJ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AK7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AL7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AM7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AN7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AO7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AP7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AQ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AR7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AS7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AT7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AU7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AV7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AW7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AX7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AY7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AZ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="BA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>1.684227191952425</v>
-      </c>
-      <c r="F8">
-        <v>1.79993383613537</v>
-      </c>
-      <c r="G8">
-        <v>2.828066716168021</v>
-      </c>
-      <c r="H8">
-        <v>2.332261646026201</v>
-      </c>
-      <c r="I8">
-        <v>1.89159218653383</v>
-      </c>
-      <c r="J8">
-        <v>1.212544822741002</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.037234054664249</v>
+        <v>1.348229573711279</v>
       </c>
       <c r="L8">
-        <v>0.9863459896782389</v>
+        <v>0.6635333137006372</v>
       </c>
       <c r="M8">
-        <v>0.9863459896782389</v>
+        <v>0.7749619016294229</v>
       </c>
       <c r="N8">
-        <v>0.9560359274609853</v>
+        <v>0.8520644823059031</v>
       </c>
       <c r="O8">
-        <v>0.9560359274609853</v>
+        <v>0.481899667566732</v>
       </c>
       <c r="P8">
-        <v>0.9560359274609853</v>
+        <v>0.8783377572271434</v>
       </c>
       <c r="Q8">
-        <v>0.9560359274609853</v>
+        <v>0.8490610167197987</v>
       </c>
       <c r="R8">
-        <v>0.9560359274609853</v>
+        <v>1.039829377018497</v>
       </c>
       <c r="S8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="T8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="U8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="V8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="W8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="X8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Y8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Z8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AB8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AC8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AD8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AE8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AF8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AG8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AH8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AI8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AJ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AK8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AL8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AM8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AN8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AO8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AP8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AQ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AR8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AS8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AT8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AU8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AV8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AW8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AX8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AY8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AZ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="BA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>2.728186312853165</v>
-      </c>
-      <c r="H9">
-        <v>2.508798255042111</v>
-      </c>
-      <c r="I9">
-        <v>2.544631191216329</v>
-      </c>
-      <c r="J9">
-        <v>1.839804681163293</v>
-      </c>
-      <c r="K9">
-        <v>1.554977796875501</v>
-      </c>
-      <c r="L9">
-        <v>1.196776590518644</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.267488427675856</v>
+        <v>0.8646295802541504</v>
       </c>
       <c r="N9">
-        <v>1.19851057193181</v>
+        <v>0.932540026322326</v>
       </c>
       <c r="O9">
-        <v>1.152798198102301</v>
+        <v>0.7487574275251818</v>
       </c>
       <c r="P9">
-        <v>1.334310112364046</v>
+        <v>1.474590898715178</v>
       </c>
       <c r="Q9">
-        <v>1.334310112364046</v>
+        <v>1.905862317202112</v>
       </c>
       <c r="R9">
-        <v>1.334310112364046</v>
+        <v>2.29066283401107</v>
       </c>
       <c r="S9">
-        <v>1.334310112364046</v>
+        <v>2.26461104984752</v>
       </c>
       <c r="T9">
-        <v>1.334310112364046</v>
+        <v>2.180625196942776</v>
       </c>
       <c r="U9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="V9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="W9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="X9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Y9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Z9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AB9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AC9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AD9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AE9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AF9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AG9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AH9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AI9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AJ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AK9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AL9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AM9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AN9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AO9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AP9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AQ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AR9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AS9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AT9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AU9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AV9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AW9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AX9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AY9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AZ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="BA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>2.368280591879079</v>
-      </c>
-      <c r="J10">
-        <v>1.722038049957497</v>
-      </c>
-      <c r="K10">
-        <v>1.312870290004287</v>
-      </c>
-      <c r="L10">
-        <v>0.670590452940556</v>
-      </c>
-      <c r="M10">
-        <v>0.6180254938795482</v>
-      </c>
-      <c r="N10">
-        <v>0.4712609263772594</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.4980533509886476</v>
+        <v>0.6850207307013356</v>
       </c>
       <c r="P10">
-        <v>0.8625324730765938</v>
+        <v>1.141953046456501</v>
       </c>
       <c r="Q10">
-        <v>0.8625324730765938</v>
+        <v>1.389591155234515</v>
       </c>
       <c r="R10">
-        <v>0.8625324730765938</v>
+        <v>2.597902967862775</v>
       </c>
       <c r="S10">
-        <v>0.8625324730765938</v>
+        <v>2.671046044496239</v>
       </c>
       <c r="T10">
-        <v>0.8625324730765938</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="U10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="V10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="W10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="X10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Y10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Z10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AB10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AC10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AD10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AE10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AF10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AG10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AH10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AI10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AJ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AK10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AL10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AM10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AN10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AO10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AP10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AQ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AR10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AS10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AT10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AU10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AV10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AW10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AX10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AY10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AZ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="BA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.348229573711279</v>
-      </c>
-      <c r="L11">
-        <v>0.6635333137006372</v>
-      </c>
-      <c r="M11">
-        <v>0.7749619016293785</v>
-      </c>
-      <c r="N11">
-        <v>0.8520644823059476</v>
-      </c>
-      <c r="O11">
-        <v>0.481899667566732</v>
-      </c>
-      <c r="P11">
-        <v>0.8783377572271434</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.8490610167197987</v>
+        <v>1.300580661444428</v>
       </c>
       <c r="R11">
-        <v>1.039829377018475</v>
+        <v>1.936177356693602</v>
       </c>
       <c r="S11">
-        <v>1.127663699749415</v>
+        <v>2.125743999456575</v>
       </c>
       <c r="T11">
-        <v>1.127663699749415</v>
+        <v>3.628019428949014</v>
       </c>
       <c r="U11">
-        <v>1.127663699749415</v>
+        <v>1.917627847674042</v>
       </c>
       <c r="V11">
-        <v>1.127663699749415</v>
+        <v>1.336316831462692</v>
       </c>
       <c r="W11">
-        <v>1.127663699749415</v>
+        <v>1.59195091403983</v>
       </c>
       <c r="X11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Y11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Z11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AB11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AC11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AD11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AE11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AF11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AG11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AH11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AI11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AJ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AK11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AL11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AM11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AN11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AO11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AP11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AQ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AR11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AS11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AT11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AU11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AV11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AW11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AX11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AY11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AZ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="BA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.8646295802541726</v>
-      </c>
-      <c r="N12">
-        <v>0.9325400263222816</v>
-      </c>
-      <c r="O12">
-        <v>0.7487574275252262</v>
-      </c>
-      <c r="P12">
-        <v>1.474590898715178</v>
-      </c>
-      <c r="Q12">
-        <v>1.905862317202089</v>
-      </c>
-      <c r="R12">
-        <v>2.29066283401107</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.26461104984752</v>
+        <v>2.141269514296429</v>
       </c>
       <c r="T12">
-        <v>2.180625196942776</v>
+        <v>3.24759090357174</v>
       </c>
       <c r="U12">
-        <v>2.036722793063239</v>
+        <v>2.69471174461664</v>
       </c>
       <c r="V12">
-        <v>2.036722793063239</v>
+        <v>1.626630409005325</v>
       </c>
       <c r="W12">
-        <v>2.036722793063239</v>
+        <v>2.121911365876805</v>
       </c>
       <c r="X12">
-        <v>2.036722793063239</v>
+        <v>1.119562422009124</v>
       </c>
       <c r="Y12">
-        <v>2.036722793063239</v>
+        <v>1.33730574578026</v>
       </c>
       <c r="Z12">
-        <v>2.036722793063239</v>
+        <v>1.197912858979611</v>
       </c>
       <c r="AA12">
-        <v>2.036722793063239</v>
+        <v>1.15809427190452</v>
       </c>
       <c r="AB12">
-        <v>2.036722793063239</v>
+        <v>1.173141108194797</v>
       </c>
       <c r="AC12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AD12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AE12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AF12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AG12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AH12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AI12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AJ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AK12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AL12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AM12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AN12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AO12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AP12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AQ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AR12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AS12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AT12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AU12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AV12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AW12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AX12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AY12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AZ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="BA12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.6850207307013578</v>
-      </c>
-      <c r="P13">
-        <v>1.141953046456456</v>
-      </c>
-      <c r="Q13">
-        <v>1.389591155234515</v>
-      </c>
-      <c r="R13">
-        <v>2.597902967862775</v>
-      </c>
-      <c r="S13">
-        <v>2.671046044496239</v>
-      </c>
-      <c r="T13">
-        <v>4.109890522944348</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>4.211110015923025</v>
+        <v>2.761560349662151</v>
       </c>
       <c r="V13">
-        <v>4.211110015923025</v>
+        <v>2.419358311104602</v>
       </c>
       <c r="W13">
-        <v>4.211110015923025</v>
+        <v>2.706722015217466</v>
       </c>
       <c r="X13">
-        <v>4.211110015923025</v>
+        <v>1.831617848540201</v>
       </c>
       <c r="Y13">
-        <v>4.211110015923025</v>
+        <v>1.730186041121162</v>
       </c>
       <c r="Z13">
-        <v>4.211110015923025</v>
+        <v>1.216371234267344</v>
       </c>
       <c r="AA13">
-        <v>4.211110015923025</v>
+        <v>2.252616573494315</v>
       </c>
       <c r="AB13">
-        <v>4.211110015923025</v>
+        <v>1.344920716048215</v>
       </c>
       <c r="AC13">
-        <v>4.211110015923025</v>
+        <v>1.722359355602787</v>
       </c>
       <c r="AD13">
-        <v>4.211110015923025</v>
+        <v>1.727537197898665</v>
       </c>
       <c r="AE13">
-        <v>4.211110015923025</v>
+        <v>2.066130269500577</v>
       </c>
       <c r="AF13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AG13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AH13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AI13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AJ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AK13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AL13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AM13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AN13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AO13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AP13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AQ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AR13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AS13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AT13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AU13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AV13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AW13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AX13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AY13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AZ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="BA13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.300580661444406</v>
-      </c>
-      <c r="R14">
-        <v>1.936177356693625</v>
-      </c>
-      <c r="S14">
-        <v>2.125743999456575</v>
-      </c>
-      <c r="T14">
-        <v>3.628019428949036</v>
-      </c>
-      <c r="U14">
-        <v>1.917627847674064</v>
-      </c>
-      <c r="V14">
-        <v>1.336316831462692</v>
-      </c>
-      <c r="W14">
-        <v>1.591950914039808</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.551589743072834</v>
+        <v>2.096770892294031</v>
       </c>
       <c r="Y14">
-        <v>1.551589743072834</v>
+        <v>1.848794280926991</v>
       </c>
       <c r="Z14">
-        <v>1.551589743072834</v>
+        <v>1.265821396407829</v>
       </c>
       <c r="AA14">
-        <v>1.551589743072834</v>
+        <v>1.46507610487594</v>
       </c>
       <c r="AB14">
-        <v>1.551589743072834</v>
+        <v>1.037735724446587</v>
       </c>
       <c r="AC14">
-        <v>1.551589743072834</v>
+        <v>1.751794502139248</v>
       </c>
       <c r="AD14">
-        <v>1.551589743072834</v>
+        <v>2.164378481800822</v>
       </c>
       <c r="AE14">
-        <v>1.551589743072834</v>
+        <v>2.554068495740247</v>
       </c>
       <c r="AF14">
-        <v>1.551589743072834</v>
+        <v>2.195375580740744</v>
       </c>
       <c r="AG14">
-        <v>1.551589743072834</v>
+        <v>3.051988423696317</v>
       </c>
       <c r="AH14">
-        <v>1.551589743072834</v>
+        <v>3.647228437274408</v>
       </c>
       <c r="AI14">
-        <v>1.551589743072834</v>
+        <v>3.289483383701342</v>
       </c>
       <c r="AJ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AK14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AL14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AM14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AN14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AO14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AP14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AQ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AR14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AS14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AT14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AU14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AV14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AW14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AX14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AY14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AZ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="BA14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>2.141269514296407</v>
-      </c>
-      <c r="T15">
-        <v>3.247590903571718</v>
-      </c>
-      <c r="U15">
-        <v>2.694711744616662</v>
-      </c>
-      <c r="V15">
-        <v>1.626630409005325</v>
-      </c>
-      <c r="W15">
-        <v>2.121911365876805</v>
-      </c>
-      <c r="X15">
-        <v>1.119562422009102</v>
-      </c>
-      <c r="Y15">
-        <v>1.33730574578026</v>
-      </c>
-      <c r="Z15">
-        <v>1.197912858979611</v>
-      </c>
-      <c r="AA15">
-        <v>1.15809427190452</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.173141108194797</v>
+        <v>1.187986844615363</v>
       </c>
       <c r="AC15">
-        <v>1.455651414914461</v>
+        <v>1.600343182215713</v>
       </c>
       <c r="AD15">
-        <v>1.455651414914461</v>
+        <v>1.83668616552326</v>
       </c>
       <c r="AE15">
-        <v>1.455651414914461</v>
+        <v>2.057677568601424</v>
       </c>
       <c r="AF15">
-        <v>1.455651414914461</v>
+        <v>1.872521508785896</v>
       </c>
       <c r="AG15">
-        <v>1.455651414914461</v>
+        <v>2.944137475478126</v>
       </c>
       <c r="AH15">
-        <v>1.455651414914461</v>
+        <v>3.933586883651397</v>
       </c>
       <c r="AI15">
-        <v>1.455651414914461</v>
+        <v>2.014919551176164</v>
       </c>
       <c r="AJ15">
-        <v>1.455651414914461</v>
+        <v>2.491319804758541</v>
       </c>
       <c r="AK15">
-        <v>1.455651414914461</v>
+        <v>2.358700676763137</v>
       </c>
       <c r="AL15">
-        <v>1.455651414914461</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="AM15">
-        <v>1.455651414914461</v>
+        <v>2.749266975822984</v>
       </c>
       <c r="AN15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AO15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AP15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AQ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AR15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AS15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AT15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AU15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AV15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AW15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AX15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AY15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AZ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="BA15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>2.761560349662151</v>
-      </c>
-      <c r="V16">
-        <v>2.41935831110458</v>
-      </c>
-      <c r="W16">
-        <v>2.706722015217466</v>
-      </c>
-      <c r="X16">
-        <v>1.831617848540201</v>
-      </c>
-      <c r="Y16">
-        <v>1.730186041121162</v>
-      </c>
-      <c r="Z16">
-        <v>1.216371234267344</v>
-      </c>
-      <c r="AA16">
-        <v>2.252616573494293</v>
-      </c>
-      <c r="AB16">
-        <v>1.344920716048192</v>
-      </c>
-      <c r="AC16">
-        <v>1.722359355602787</v>
-      </c>
-      <c r="AD16">
-        <v>1.727537197898665</v>
-      </c>
-      <c r="AE16">
-        <v>2.066130269500599</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>2.211901852239651</v>
+        <v>1.943794203772553</v>
       </c>
       <c r="AG16">
-        <v>2.211901852239651</v>
+        <v>2.530194824396892</v>
       </c>
       <c r="AH16">
-        <v>2.211901852239651</v>
+        <v>3.241844574095731</v>
       </c>
       <c r="AI16">
-        <v>2.211901852239651</v>
+        <v>2.526665560661456</v>
       </c>
       <c r="AJ16">
-        <v>2.211901852239651</v>
+        <v>2.78106797904647</v>
       </c>
       <c r="AK16">
-        <v>2.211901852239651</v>
+        <v>3.271886281175829</v>
       </c>
       <c r="AL16">
-        <v>2.211901852239651</v>
+        <v>2.073300717643911</v>
       </c>
       <c r="AM16">
-        <v>2.211901852239651</v>
+        <v>2.103357626813085</v>
       </c>
       <c r="AN16">
-        <v>2.211901852239651</v>
+        <v>0.3834541475570052</v>
       </c>
       <c r="AO16">
-        <v>2.211901852239651</v>
+        <v>2.740261495864793</v>
       </c>
       <c r="AP16">
-        <v>2.211901852239651</v>
+        <v>0.6994919452575576</v>
       </c>
       <c r="AQ16">
-        <v>2.211901852239651</v>
+        <v>0.3902136525336664</v>
       </c>
       <c r="AR16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AS16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AT16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AU16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AV16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AW16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AX16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AY16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AZ16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="BA16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>2.096770892294031</v>
-      </c>
-      <c r="Y17">
-        <v>1.848794280926969</v>
-      </c>
-      <c r="Z17">
-        <v>1.265821396407851</v>
-      </c>
-      <c r="AA17">
-        <v>1.465076104875918</v>
-      </c>
-      <c r="AB17">
-        <v>1.037735724446631</v>
-      </c>
-      <c r="AC17">
-        <v>1.75179450213927</v>
-      </c>
-      <c r="AD17">
-        <v>2.164378481800822</v>
-      </c>
-      <c r="AE17">
-        <v>2.554068495740247</v>
-      </c>
-      <c r="AF17">
-        <v>2.195375580740766</v>
-      </c>
-      <c r="AG17">
-        <v>3.051988423696317</v>
-      </c>
-      <c r="AH17">
-        <v>3.647228437274408</v>
-      </c>
-      <c r="AI17">
-        <v>3.289483383701342</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>3.454003806423289</v>
+        <v>2.913101075313285</v>
       </c>
       <c r="AK17">
-        <v>3.454003806423289</v>
+        <v>3.126807966763234</v>
       </c>
       <c r="AL17">
-        <v>3.454003806423289</v>
+        <v>2.808095862911286</v>
       </c>
       <c r="AM17">
-        <v>3.454003806423289</v>
+        <v>2.892264743986717</v>
       </c>
       <c r="AN17">
-        <v>3.454003806423289</v>
+        <v>1.872042068954638</v>
       </c>
       <c r="AO17">
-        <v>3.454003806423289</v>
+        <v>4.569471876550879</v>
       </c>
       <c r="AP17">
-        <v>3.454003806423289</v>
+        <v>1.589741018019186</v>
       </c>
       <c r="AQ17">
-        <v>3.454003806423289</v>
+        <v>0.5736642676680059</v>
       </c>
       <c r="AR17">
-        <v>3.454003806423289</v>
+        <v>-4.149799191324066</v>
       </c>
       <c r="AS17">
-        <v>3.454003806423289</v>
+        <v>-1.678602239427673</v>
       </c>
       <c r="AT17">
-        <v>3.454003806423289</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="AU17">
-        <v>3.454003806423289</v>
+        <v>-1.101033528970929</v>
       </c>
       <c r="AV17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AW17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AX17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AY17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AZ17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="BA17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.187986844615341</v>
-      </c>
-      <c r="AC18">
-        <v>1.600343182215735</v>
-      </c>
-      <c r="AD18">
-        <v>1.83668616552326</v>
-      </c>
-      <c r="AE18">
-        <v>2.057677568601401</v>
-      </c>
-      <c r="AF18">
-        <v>1.872521508785896</v>
-      </c>
-      <c r="AG18">
-        <v>2.944137475478126</v>
-      </c>
-      <c r="AH18">
-        <v>3.933586883651374</v>
-      </c>
-      <c r="AI18">
-        <v>2.014919551176142</v>
-      </c>
-      <c r="AJ18">
-        <v>2.491319804758563</v>
-      </c>
-      <c r="AK18">
-        <v>2.358700676763115</v>
-      </c>
-      <c r="AL18">
-        <v>2.777797690741424</v>
-      </c>
-      <c r="AM18">
-        <v>2.749266975822962</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>2.895789704837659</v>
+        <v>1.978812988786349</v>
       </c>
       <c r="AO18">
-        <v>2.895789704837659</v>
+        <v>3.604071155096222</v>
       </c>
       <c r="AP18">
-        <v>2.895789704837659</v>
+        <v>1.905380759921971</v>
       </c>
       <c r="AQ18">
-        <v>2.895789704837659</v>
+        <v>1.167752392835819</v>
       </c>
       <c r="AR18">
-        <v>2.895789704837659</v>
+        <v>-2.475922651815632</v>
       </c>
       <c r="AS18">
-        <v>2.895789704837659</v>
+        <v>-0.5705663367256197</v>
       </c>
       <c r="AT18">
-        <v>2.895789704837659</v>
+        <v>-0.2229989129682308</v>
       </c>
       <c r="AU18">
-        <v>2.895789704837659</v>
+        <v>0.3175191812679445</v>
       </c>
       <c r="AV18">
-        <v>2.895789704837659</v>
+        <v>1.058768853581427</v>
       </c>
       <c r="AW18">
-        <v>2.895789704837659</v>
+        <v>1.804377578238681</v>
       </c>
       <c r="AX18">
-        <v>2.895789704837659</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="AY18">
-        <v>2.895789704837659</v>
+        <v>2.738259114155683</v>
       </c>
       <c r="AZ18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
       <c r="BA18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>1.943794203772553</v>
-      </c>
-      <c r="AG19">
-        <v>2.530194824396892</v>
-      </c>
-      <c r="AH19">
-        <v>3.241844574095754</v>
-      </c>
-      <c r="AI19">
-        <v>2.526665560661456</v>
-      </c>
-      <c r="AJ19">
-        <v>2.781067979046448</v>
-      </c>
-      <c r="AK19">
-        <v>3.271886281175873</v>
-      </c>
-      <c r="AL19">
-        <v>2.073300717643933</v>
-      </c>
-      <c r="AM19">
-        <v>2.103357626813085</v>
-      </c>
-      <c r="AN19">
-        <v>0.3834541475570052</v>
-      </c>
-      <c r="AO19">
-        <v>2.740261495864815</v>
-      </c>
-      <c r="AP19">
-        <v>0.6994919452575576</v>
-      </c>
-      <c r="AQ19">
-        <v>0.3902136525336664</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.486919784128137</v>
+        <v>-1.301151919515731</v>
       </c>
       <c r="AS19">
-        <v>0.486919784128137</v>
+        <v>-0.1469770571107087</v>
       </c>
       <c r="AT19">
-        <v>0.486919784128137</v>
+        <v>0.2551864977031748</v>
       </c>
       <c r="AU19">
-        <v>0.486919784128137</v>
+        <v>-1.116764638702061</v>
       </c>
       <c r="AV19">
-        <v>0.486919784128137</v>
+        <v>0.1776362760785632</v>
       </c>
       <c r="AW19">
-        <v>0.486919784128137</v>
+        <v>1.119071098282753</v>
       </c>
       <c r="AX19">
-        <v>0.486919784128137</v>
+        <v>1.562315774899048</v>
       </c>
       <c r="AY19">
-        <v>0.486919784128137</v>
+        <v>3.080898110573727</v>
       </c>
       <c r="AZ19">
-        <v>0.486919784128137</v>
+        <v>2.221594549876427</v>
       </c>
       <c r="BA19">
-        <v>0.486919784128137</v>
+        <v>2.502458807779662</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>2.913101075313285</v>
-      </c>
-      <c r="AK20">
-        <v>3.126807966763234</v>
-      </c>
-      <c r="AL20">
-        <v>2.808095862911286</v>
-      </c>
-      <c r="AM20">
-        <v>2.892264743986717</v>
-      </c>
-      <c r="AN20">
-        <v>1.87204206895466</v>
-      </c>
-      <c r="AO20">
-        <v>4.569471876550857</v>
-      </c>
-      <c r="AP20">
-        <v>1.589741018019208</v>
-      </c>
-      <c r="AQ20">
-        <v>0.5736642676680059</v>
-      </c>
-      <c r="AR20">
-        <v>-4.149799191324089</v>
-      </c>
-      <c r="AS20">
-        <v>-1.678602239427696</v>
-      </c>
-      <c r="AT20">
-        <v>-1.432689847121871</v>
-      </c>
-      <c r="AU20">
-        <v>-1.101033528970941</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.8339987268309312</v>
+        <v>0.3039503456698567</v>
       </c>
       <c r="AW20">
-        <v>-0.8339987268309312</v>
+        <v>0.7790263149646925</v>
       </c>
       <c r="AX20">
-        <v>-0.8339987268309312</v>
+        <v>0.7893175677591069</v>
       </c>
       <c r="AY20">
-        <v>-0.8339987268309312</v>
+        <v>1.499838047825253</v>
       </c>
       <c r="AZ20">
-        <v>-0.8339987268309312</v>
+        <v>1.476229480348801</v>
       </c>
       <c r="BA20">
-        <v>-0.8339987268309312</v>
+        <v>1.91692372237473</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.978812988786327</v>
-      </c>
-      <c r="AO21">
-        <v>3.604071155096222</v>
-      </c>
-      <c r="AP21">
-        <v>1.905380759921993</v>
-      </c>
-      <c r="AQ21">
-        <v>1.167752392835797</v>
-      </c>
-      <c r="AR21">
-        <v>-2.475922651815654</v>
-      </c>
-      <c r="AS21">
-        <v>-0.5705663367256419</v>
-      </c>
-      <c r="AT21">
-        <v>-0.2229989129682308</v>
-      </c>
-      <c r="AU21">
-        <v>0.3175191812679445</v>
-      </c>
-      <c r="AV21">
-        <v>1.058768853581427</v>
-      </c>
-      <c r="AW21">
-        <v>1.804377578238681</v>
-      </c>
-      <c r="AX21">
-        <v>2.033479419175133</v>
-      </c>
-      <c r="AY21">
-        <v>2.738259114155683</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>2.721554796335801</v>
+        <v>1.667657899747454</v>
       </c>
       <c r="BA21">
-        <v>2.721554796335801</v>
+        <v>1.947252656252707</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-1.301151919515731</v>
-      </c>
-      <c r="AS22">
-        <v>-0.1469770571107198</v>
-      </c>
-      <c r="AT22">
-        <v>0.2551864977031748</v>
-      </c>
-      <c r="AU22">
-        <v>-1.11676463870205</v>
-      </c>
-      <c r="AV22">
-        <v>0.1776362760785632</v>
-      </c>
-      <c r="AW22">
-        <v>1.119071098282753</v>
-      </c>
-      <c r="AX22">
-        <v>1.562315774899026</v>
-      </c>
-      <c r="AY22">
-        <v>3.080898110573727</v>
-      </c>
-      <c r="AZ22">
-        <v>2.221594549876471</v>
-      </c>
-      <c r="BA22">
-        <v>2.502458807779684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.3039503456698345</v>
-      </c>
-      <c r="AW23">
-        <v>0.7790263149646925</v>
-      </c>
-      <c r="AX23">
-        <v>0.7893175677591291</v>
-      </c>
-      <c r="AY23">
-        <v>1.499838047825253</v>
-      </c>
-      <c r="AZ23">
-        <v>1.476229480348801</v>
-      </c>
-      <c r="BA23">
-        <v>1.91692372237473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.667657899747477</v>
-      </c>
-      <c r="BA24">
-        <v>1.947252656252729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>3.311198277644523</v>
       </c>
+      <c r="BB3">
+        <v>3.311198277644523</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.295764853811622</v>
       </c>
+      <c r="BB4">
+        <v>2.295764853811622</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>0.9560359274609631</v>
       </c>
+      <c r="BB5">
+        <v>0.9560359274609631</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.33431011236409</v>
       </c>
+      <c r="BB6">
+        <v>1.33431011236409</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>0.8625324730765715</v>
       </c>
+      <c r="BB7">
+        <v>0.8625324730765715</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.127663699749437</v>
       </c>
+      <c r="BB8">
+        <v>1.127663699749437</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>2.036722793063217</v>
       </c>
+      <c r="BB9">
+        <v>2.036722793063217</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>4.211110015923047</v>
       </c>
+      <c r="BB10">
+        <v>4.211110015923047</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>1.551589743072856</v>
       </c>
+      <c r="BB11">
+        <v>1.551589743072856</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.455651414914461</v>
       </c>
+      <c r="BB12">
+        <v>1.455651414914461</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>2.211901852239651</v>
       </c>
+      <c r="BB13">
+        <v>2.211901852239651</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>3.454003806423267</v>
       </c>
+      <c r="BB14">
+        <v>3.454003806423267</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>2.895789704837681</v>
       </c>
+      <c r="BB15">
+        <v>2.895789704837681</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>0.486919784128137</v>
       </c>
+      <c r="BB16">
+        <v>0.486919784128137</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.8339987268308979</v>
       </c>
+      <c r="BB17">
+        <v>-0.8339987268308979</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>2.721554796335779</v>
       </c>
+      <c r="BB18">
+        <v>2.721554796335779</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.502458807779662</v>
       </c>
+      <c r="BB19">
+        <v>2.622852459381209</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>1.91692372237473</v>
       </c>
+      <c r="BB20">
+        <v>2.447176337618551</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>1.947252656252707</v>
       </c>
+      <c r="BB21">
+        <v>2.720226860657204</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
